--- a/excel_files/case_com_info.xlsx
+++ b/excel_files/case_com_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,29 +415,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -448,84 +448,84 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -536,408 +536,12 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>45383</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>45383</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>45383</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>45383</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>45413</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>45413</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>45413</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>45413</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>45444</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>45444</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>45444</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>45444</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>45474</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>45474</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>45474</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>45474</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>45505</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>45505</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>45505</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>45505</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49">
         <v>0</v>
       </c>
     </row>
